--- a/Examples/Luke Muehlauser sequences.xlsx
+++ b/Examples/Luke Muehlauser sequences.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="18075" windowHeight="5895"/>
@@ -11,7 +11,7 @@
     <sheet name="Sequences" sheetId="2" r:id="rId2"/>
     <sheet name="Books" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -189,8 +189,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,7 +677,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -692,7 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -824,7 +823,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -859,7 +857,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1035,20 +1032,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" t="s">
@@ -1089,7 +1086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" t="s">
@@ -1099,7 +1096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
@@ -1109,7 +1106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" t="s">
@@ -1119,7 +1116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
@@ -1129,7 +1126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
@@ -1139,7 +1136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -1151,7 +1148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" t="s">
@@ -1161,7 +1158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" t="s">
@@ -1171,7 +1168,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" t="s">
@@ -1181,7 +1178,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" t="s">
@@ -1191,7 +1188,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" t="s">
@@ -1201,7 +1198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" t="s">
@@ -1211,7 +1208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" t="s">
@@ -1221,7 +1218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" t="s">
@@ -1231,7 +1228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" t="s">
@@ -1241,7 +1238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" t="s">
@@ -1251,7 +1248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1259,46 +1256,46 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33" s="3"/>
     </row>
-    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" ht="15" customHeight="1"/>
+    <row r="258" ht="15" customHeight="1"/>
+    <row r="337" spans="2:5" ht="18.75" customHeight="1">
       <c r="B337" s="1"/>
       <c r="E337" s="1"/>
     </row>
@@ -1318,19 +1315,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1362,104 +1359,104 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" customHeight="1"/>
+    <row r="6" spans="1:2" ht="15" customHeight="1"/>
+    <row r="7" spans="1:2" ht="15" customHeight="1"/>
+    <row r="8" spans="1:2" ht="15" customHeight="1"/>
+    <row r="9" spans="1:2" ht="15" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1"/>
+    <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" customHeight="1">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" customHeight="1">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15" customHeight="1"/>
+    <row r="34" spans="1:1">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="2"/>
     </row>
   </sheetData>
@@ -1468,19 +1465,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1488,16 +1485,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" ht="15" customHeight="1"/>
+    <row r="4" spans="1:2" ht="15" customHeight="1"/>
+    <row r="5" spans="1:2" ht="15" customHeight="1"/>
+    <row r="6" spans="1:2" ht="15" customHeight="1"/>
+    <row r="7" spans="1:2" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
